--- a/_CLUSTER/groups_time_area/groups_counts_area5_Pg.xlsx
+++ b/_CLUSTER/groups_time_area/groups_counts_area5_Pg.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -375,23 +375,23 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
@@ -399,7 +399,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -407,25 +407,9 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
         <v>1</v>
       </c>
     </row>

--- a/_CLUSTER/groups_time_area/groups_counts_area5_Pg.xlsx
+++ b/_CLUSTER/groups_time_area/groups_counts_area5_Pg.xlsx
@@ -367,10 +367,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>groups</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="2">
